--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.87498006383737</v>
+        <v>2.055589666666667</v>
       </c>
       <c r="H2">
-        <v>1.87498006383737</v>
+        <v>6.166769</v>
       </c>
       <c r="I2">
-        <v>0.1121631083286017</v>
+        <v>0.1150400298148962</v>
       </c>
       <c r="J2">
-        <v>0.1121631083286017</v>
+        <v>0.1150400298148962</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.50741565377761</v>
+        <v>4.543446666666667</v>
       </c>
       <c r="N2">
-        <v>4.50741565377761</v>
+        <v>13.63034</v>
       </c>
       <c r="O2">
-        <v>0.3157181450400935</v>
+        <v>0.305297842646339</v>
       </c>
       <c r="P2">
-        <v>0.3157181450400935</v>
+        <v>0.305297842646339</v>
       </c>
       <c r="Q2">
-        <v>8.451314490261502</v>
+        <v>9.339462019051112</v>
       </c>
       <c r="R2">
-        <v>8.451314490261502</v>
+        <v>84.05515817146001</v>
       </c>
       <c r="S2">
-        <v>0.0354119285034372</v>
+        <v>0.03512147292045831</v>
       </c>
       <c r="T2">
-        <v>0.0354119285034372</v>
+        <v>0.03512147292045831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.87498006383737</v>
+        <v>2.055589666666667</v>
       </c>
       <c r="H3">
-        <v>1.87498006383737</v>
+        <v>6.166769</v>
       </c>
       <c r="I3">
-        <v>0.1121631083286017</v>
+        <v>0.1150400298148962</v>
       </c>
       <c r="J3">
-        <v>0.1121631083286017</v>
+        <v>0.1150400298148962</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.8334739781974</v>
+        <v>4.938922000000001</v>
       </c>
       <c r="N3">
-        <v>4.8334739781974</v>
+        <v>14.816766</v>
       </c>
       <c r="O3">
-        <v>0.3385566266153222</v>
+        <v>0.3318718898278125</v>
       </c>
       <c r="P3">
-        <v>0.3385566266153222</v>
+        <v>0.3318718898278125</v>
       </c>
       <c r="Q3">
-        <v>9.062667348196827</v>
+        <v>10.15239702767267</v>
       </c>
       <c r="R3">
-        <v>9.062667348196827</v>
+        <v>91.37157324905401</v>
       </c>
       <c r="S3">
-        <v>0.03797356358642035</v>
+        <v>0.03817855210051748</v>
       </c>
       <c r="T3">
-        <v>0.03797356358642035</v>
+        <v>0.03817855210051748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.87498006383737</v>
+        <v>2.055589666666667</v>
       </c>
       <c r="H4">
-        <v>1.87498006383737</v>
+        <v>6.166769</v>
       </c>
       <c r="I4">
-        <v>0.1121631083286017</v>
+        <v>0.1150400298148962</v>
       </c>
       <c r="J4">
-        <v>0.1121631083286017</v>
+        <v>0.1150400298148962</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.72952291509777</v>
+        <v>3.044074333333333</v>
       </c>
       <c r="N4">
-        <v>2.72952291509777</v>
+        <v>9.132223</v>
       </c>
       <c r="O4">
-        <v>0.1911871408790237</v>
+        <v>0.2045472072204566</v>
       </c>
       <c r="P4">
-        <v>0.1911871408790237</v>
+        <v>0.2045472072204566</v>
       </c>
       <c r="Q4">
-        <v>5.11780104959558</v>
+        <v>6.257367744165221</v>
       </c>
       <c r="R4">
-        <v>5.11780104959558</v>
+        <v>56.316309697487</v>
       </c>
       <c r="S4">
-        <v>0.02144414399344957</v>
+        <v>0.02353111681719506</v>
       </c>
       <c r="T4">
-        <v>0.02144414399344957</v>
+        <v>0.02353111681719506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.87498006383737</v>
+        <v>2.055589666666667</v>
       </c>
       <c r="H5">
-        <v>1.87498006383737</v>
+        <v>6.166769</v>
       </c>
       <c r="I5">
-        <v>0.1121631083286017</v>
+        <v>0.1150400298148962</v>
       </c>
       <c r="J5">
-        <v>0.1121631083286017</v>
+        <v>0.1150400298148962</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.20629509418492</v>
+        <v>2.355570666666666</v>
       </c>
       <c r="N5">
-        <v>2.20629509418492</v>
+        <v>7.066712</v>
       </c>
       <c r="O5">
-        <v>0.1545380874655606</v>
+        <v>0.1582830603053919</v>
       </c>
       <c r="P5">
-        <v>0.1545380874655606</v>
+        <v>0.1582830603053919</v>
       </c>
       <c r="Q5">
-        <v>4.136759316538917</v>
+        <v>4.842086721503111</v>
       </c>
       <c r="R5">
-        <v>4.136759316538917</v>
+        <v>43.578780493528</v>
       </c>
       <c r="S5">
-        <v>0.01733347224529461</v>
+        <v>0.01820888797672529</v>
       </c>
       <c r="T5">
-        <v>0.01733347224529461</v>
+        <v>0.01820888797672529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.360925801229691</v>
+        <v>8.497489666666667</v>
       </c>
       <c r="H6">
-        <v>8.360925801229691</v>
+        <v>25.492469</v>
       </c>
       <c r="I6">
-        <v>0.5001586120608842</v>
+        <v>0.4755576856884563</v>
       </c>
       <c r="J6">
-        <v>0.5001586120608842</v>
+        <v>0.4755576856884562</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.50741565377761</v>
+        <v>4.543446666666667</v>
       </c>
       <c r="N6">
-        <v>4.50741565377761</v>
+        <v>13.63034</v>
       </c>
       <c r="O6">
-        <v>0.3157181450400935</v>
+        <v>0.305297842646339</v>
       </c>
       <c r="P6">
-        <v>0.3157181450400935</v>
+        <v>0.305297842646339</v>
       </c>
       <c r="Q6">
-        <v>37.68616783653581</v>
+        <v>38.60789110105112</v>
       </c>
       <c r="R6">
-        <v>37.68616783653581</v>
+        <v>347.47101990946</v>
       </c>
       <c r="S6">
-        <v>0.1579091492256901</v>
+        <v>0.1451867354945715</v>
       </c>
       <c r="T6">
-        <v>0.1579091492256901</v>
+        <v>0.1451867354945715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.360925801229691</v>
+        <v>8.497489666666667</v>
       </c>
       <c r="H7">
-        <v>8.360925801229691</v>
+        <v>25.492469</v>
       </c>
       <c r="I7">
-        <v>0.5001586120608842</v>
+        <v>0.4755576856884563</v>
       </c>
       <c r="J7">
-        <v>0.5001586120608842</v>
+        <v>0.4755576856884562</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.8334739781974</v>
+        <v>4.938922000000001</v>
       </c>
       <c r="N7">
-        <v>4.8334739781974</v>
+        <v>14.816766</v>
       </c>
       <c r="O7">
-        <v>0.3385566266153222</v>
+        <v>0.3318718898278125</v>
       </c>
       <c r="P7">
-        <v>0.3385566266153222</v>
+        <v>0.3318718898278125</v>
       </c>
       <c r="Q7">
-        <v>40.41231729388296</v>
+        <v>41.96843865947267</v>
       </c>
       <c r="R7">
-        <v>40.41231729388296</v>
+        <v>377.715947935254</v>
       </c>
       <c r="S7">
-        <v>0.1693320124719346</v>
+        <v>0.1578242278715689</v>
       </c>
       <c r="T7">
-        <v>0.1693320124719346</v>
+        <v>0.1578242278715689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.360925801229691</v>
+        <v>8.497489666666667</v>
       </c>
       <c r="H8">
-        <v>8.360925801229691</v>
+        <v>25.492469</v>
       </c>
       <c r="I8">
-        <v>0.5001586120608842</v>
+        <v>0.4755576856884563</v>
       </c>
       <c r="J8">
-        <v>0.5001586120608842</v>
+        <v>0.4755576856884562</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.72952291509777</v>
+        <v>3.044074333333333</v>
       </c>
       <c r="N8">
-        <v>2.72952291509777</v>
+        <v>9.132223</v>
       </c>
       <c r="O8">
-        <v>0.1911871408790237</v>
+        <v>0.2045472072204566</v>
       </c>
       <c r="P8">
-        <v>0.1911871408790237</v>
+        <v>0.2045472072204566</v>
       </c>
       <c r="Q8">
-        <v>22.82133856588862</v>
+        <v>25.86699019206522</v>
       </c>
       <c r="R8">
-        <v>22.82133856588862</v>
+        <v>232.802911728587</v>
       </c>
       <c r="S8">
-        <v>0.09562389502594122</v>
+        <v>0.09727399647979741</v>
       </c>
       <c r="T8">
-        <v>0.09562389502594122</v>
+        <v>0.0972739964797974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.360925801229691</v>
+        <v>8.497489666666667</v>
       </c>
       <c r="H9">
-        <v>8.360925801229691</v>
+        <v>25.492469</v>
       </c>
       <c r="I9">
-        <v>0.5001586120608842</v>
+        <v>0.4755576856884563</v>
       </c>
       <c r="J9">
-        <v>0.5001586120608842</v>
+        <v>0.4755576856884562</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.20629509418492</v>
+        <v>2.355570666666666</v>
       </c>
       <c r="N9">
-        <v>2.20629509418492</v>
+        <v>7.066712</v>
       </c>
       <c r="O9">
-        <v>0.1545380874655606</v>
+        <v>0.1582830603053919</v>
       </c>
       <c r="P9">
-        <v>0.1545380874655606</v>
+        <v>0.1582830603053919</v>
       </c>
       <c r="Q9">
-        <v>18.44666957809719</v>
+        <v>20.01643739910311</v>
       </c>
       <c r="R9">
-        <v>18.44666957809719</v>
+        <v>180.147936591928</v>
       </c>
       <c r="S9">
-        <v>0.07729355533731833</v>
+        <v>0.07527272584251854</v>
       </c>
       <c r="T9">
-        <v>0.07729355533731833</v>
+        <v>0.07527272584251853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.00458091638092</v>
+        <v>4.394165333333333</v>
       </c>
       <c r="H10">
-        <v>4.00458091638092</v>
+        <v>13.182496</v>
       </c>
       <c r="I10">
-        <v>0.2395578767997203</v>
+        <v>0.245917227137055</v>
       </c>
       <c r="J10">
-        <v>0.2395578767997203</v>
+        <v>0.2459172271370549</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.50741565377761</v>
+        <v>4.543446666666667</v>
       </c>
       <c r="N10">
-        <v>4.50741565377761</v>
+        <v>13.63034</v>
       </c>
       <c r="O10">
-        <v>0.3157181450400935</v>
+        <v>0.305297842646339</v>
       </c>
       <c r="P10">
-        <v>0.3157181450400935</v>
+        <v>0.305297842646339</v>
       </c>
       <c r="Q10">
-        <v>18.05031070931445</v>
+        <v>19.96465583651556</v>
       </c>
       <c r="R10">
-        <v>18.05031070931445</v>
+        <v>179.68190252864</v>
       </c>
       <c r="S10">
-        <v>0.07563276849295095</v>
+        <v>0.07507799891451263</v>
       </c>
       <c r="T10">
-        <v>0.07563276849295095</v>
+        <v>0.0750779989145126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.00458091638092</v>
+        <v>4.394165333333333</v>
       </c>
       <c r="H11">
-        <v>4.00458091638092</v>
+        <v>13.182496</v>
       </c>
       <c r="I11">
-        <v>0.2395578767997203</v>
+        <v>0.245917227137055</v>
       </c>
       <c r="J11">
-        <v>0.2395578767997203</v>
+        <v>0.2459172271370549</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.8334739781974</v>
+        <v>4.938922000000001</v>
       </c>
       <c r="N11">
-        <v>4.8334739781974</v>
+        <v>14.816766</v>
       </c>
       <c r="O11">
-        <v>0.3385566266153222</v>
+        <v>0.3318718898278125</v>
       </c>
       <c r="P11">
-        <v>0.3385566266153222</v>
+        <v>0.3318718898278125</v>
       </c>
       <c r="Q11">
-        <v>19.35603765291308</v>
+        <v>21.70243983643734</v>
       </c>
       <c r="R11">
-        <v>19.35603765291308</v>
+        <v>195.321958527936</v>
       </c>
       <c r="S11">
-        <v>0.08110390664844226</v>
+        <v>0.08161301491118986</v>
       </c>
       <c r="T11">
-        <v>0.08110390664844226</v>
+        <v>0.08161301491118984</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.00458091638092</v>
+        <v>4.394165333333333</v>
       </c>
       <c r="H12">
-        <v>4.00458091638092</v>
+        <v>13.182496</v>
       </c>
       <c r="I12">
-        <v>0.2395578767997203</v>
+        <v>0.245917227137055</v>
       </c>
       <c r="J12">
-        <v>0.2395578767997203</v>
+        <v>0.2459172271370549</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.72952291509777</v>
+        <v>3.044074333333333</v>
       </c>
       <c r="N12">
-        <v>2.72952291509777</v>
+        <v>9.132223</v>
       </c>
       <c r="O12">
-        <v>0.1911871408790237</v>
+        <v>0.2045472072204566</v>
       </c>
       <c r="P12">
-        <v>0.1911871408790237</v>
+        <v>0.2045472072204566</v>
       </c>
       <c r="Q12">
-        <v>10.93059537662495</v>
+        <v>13.37616590762311</v>
       </c>
       <c r="R12">
-        <v>10.93059537662495</v>
+        <v>120.385493168608</v>
       </c>
       <c r="S12">
-        <v>0.04580038554038793</v>
+        <v>0.05030168201828326</v>
       </c>
       <c r="T12">
-        <v>0.04580038554038793</v>
+        <v>0.05030168201828326</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.00458091638092</v>
+        <v>4.394165333333333</v>
       </c>
       <c r="H13">
-        <v>4.00458091638092</v>
+        <v>13.182496</v>
       </c>
       <c r="I13">
-        <v>0.2395578767997203</v>
+        <v>0.245917227137055</v>
       </c>
       <c r="J13">
-        <v>0.2395578767997203</v>
+        <v>0.2459172271370549</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.20629509418492</v>
+        <v>2.355570666666666</v>
       </c>
       <c r="N13">
-        <v>2.20629509418492</v>
+        <v>7.066712</v>
       </c>
       <c r="O13">
-        <v>0.1545380874655606</v>
+        <v>0.1582830603053919</v>
       </c>
       <c r="P13">
-        <v>0.1545380874655606</v>
+        <v>0.1582830603053919</v>
       </c>
       <c r="Q13">
-        <v>8.835287230077776</v>
+        <v>10.35076696368355</v>
       </c>
       <c r="R13">
-        <v>8.835287230077776</v>
+        <v>93.156902673152</v>
       </c>
       <c r="S13">
-        <v>0.03702081611793917</v>
+        <v>0.03892453129306923</v>
       </c>
       <c r="T13">
-        <v>0.03702081611793917</v>
+        <v>0.03892453129306923</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.47606192852788</v>
+        <v>2.921228333333333</v>
       </c>
       <c r="H14">
-        <v>2.47606192852788</v>
+        <v>8.763684999999999</v>
       </c>
       <c r="I14">
-        <v>0.1481204028107938</v>
+        <v>0.1634850573595927</v>
       </c>
       <c r="J14">
-        <v>0.1481204028107938</v>
+        <v>0.1634850573595927</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.50741565377761</v>
+        <v>4.543446666666667</v>
       </c>
       <c r="N14">
-        <v>4.50741565377761</v>
+        <v>13.63034</v>
       </c>
       <c r="O14">
-        <v>0.3157181450400935</v>
+        <v>0.305297842646339</v>
       </c>
       <c r="P14">
-        <v>0.3157181450400935</v>
+        <v>0.305297842646339</v>
       </c>
       <c r="Q14">
-        <v>11.16064029636934</v>
+        <v>13.27244513365556</v>
       </c>
       <c r="R14">
-        <v>11.16064029636934</v>
+        <v>119.4520062029</v>
       </c>
       <c r="S14">
-        <v>0.04676429881801528</v>
+        <v>0.04991163531679664</v>
       </c>
       <c r="T14">
-        <v>0.04676429881801528</v>
+        <v>0.04991163531679663</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.47606192852788</v>
+        <v>2.921228333333333</v>
       </c>
       <c r="H15">
-        <v>2.47606192852788</v>
+        <v>8.763684999999999</v>
       </c>
       <c r="I15">
-        <v>0.1481204028107938</v>
+        <v>0.1634850573595927</v>
       </c>
       <c r="J15">
-        <v>0.1481204028107938</v>
+        <v>0.1634850573595927</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.8334739781974</v>
+        <v>4.938922000000001</v>
       </c>
       <c r="N15">
-        <v>4.8334739781974</v>
+        <v>14.816766</v>
       </c>
       <c r="O15">
-        <v>0.3385566266153222</v>
+        <v>0.3318718898278125</v>
       </c>
       <c r="P15">
-        <v>0.3385566266153222</v>
+        <v>0.3318718898278125</v>
       </c>
       <c r="Q15">
-        <v>11.96798089994478</v>
+        <v>14.42771888252333</v>
       </c>
       <c r="R15">
-        <v>11.96798089994478</v>
+        <v>129.84946994271</v>
       </c>
       <c r="S15">
-        <v>0.05014714390852504</v>
+        <v>0.05425609494453636</v>
       </c>
       <c r="T15">
-        <v>0.05014714390852504</v>
+        <v>0.05425609494453635</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.47606192852788</v>
+        <v>2.921228333333333</v>
       </c>
       <c r="H16">
-        <v>2.47606192852788</v>
+        <v>8.763684999999999</v>
       </c>
       <c r="I16">
-        <v>0.1481204028107938</v>
+        <v>0.1634850573595927</v>
       </c>
       <c r="J16">
-        <v>0.1481204028107938</v>
+        <v>0.1634850573595927</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.72952291509777</v>
+        <v>3.044074333333333</v>
       </c>
       <c r="N16">
-        <v>2.72952291509777</v>
+        <v>9.132223</v>
       </c>
       <c r="O16">
-        <v>0.1911871408790237</v>
+        <v>0.2045472072204566</v>
       </c>
       <c r="P16">
-        <v>0.1911871408790237</v>
+        <v>0.2045472072204566</v>
       </c>
       <c r="Q16">
-        <v>6.758467773118024</v>
+        <v>8.892436191306111</v>
       </c>
       <c r="R16">
-        <v>6.758467773118024</v>
+        <v>80.03192572175499</v>
       </c>
       <c r="S16">
-        <v>0.02831871631924497</v>
+        <v>0.03344041190518084</v>
       </c>
       <c r="T16">
-        <v>0.02831871631924497</v>
+        <v>0.03344041190518083</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.47606192852788</v>
+        <v>2.921228333333333</v>
       </c>
       <c r="H17">
-        <v>2.47606192852788</v>
+        <v>8.763684999999999</v>
       </c>
       <c r="I17">
-        <v>0.1481204028107938</v>
+        <v>0.1634850573595927</v>
       </c>
       <c r="J17">
-        <v>0.1481204028107938</v>
+        <v>0.1634850573595927</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.20629509418492</v>
+        <v>2.355570666666666</v>
       </c>
       <c r="N17">
-        <v>2.20629509418492</v>
+        <v>7.066712</v>
       </c>
       <c r="O17">
-        <v>0.1545380874655606</v>
+        <v>0.1582830603053919</v>
       </c>
       <c r="P17">
-        <v>0.1545380874655606</v>
+        <v>0.1582830603053919</v>
       </c>
       <c r="Q17">
-        <v>5.462923285809114</v>
+        <v>6.881159772635554</v>
       </c>
       <c r="R17">
-        <v>5.462923285809114</v>
+        <v>61.93043795371999</v>
       </c>
       <c r="S17">
-        <v>0.02289024376500853</v>
+        <v>0.02587691519307887</v>
       </c>
       <c r="T17">
-        <v>0.02289024376500853</v>
+        <v>0.02587691519307886</v>
       </c>
     </row>
   </sheetData>
